--- a/242_detail.xlsx
+++ b/242_detail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\function_support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tu_hoc\support_in_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68C0FBD-C64A-45C9-B939-452E13563A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732DF3C-8FB7-4B00-81C3-65DB25EE0798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15720" xr2:uid="{C3A9D134-79C3-4E6A-8346-8F042EDEFA45}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{C3A9D134-79C3-4E6A-8346-8F042EDEFA45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="632">
   <si>
     <t>MaMH</t>
   </si>
@@ -1916,9 +1916,6 @@
     <t>KINH TẾ &amp; QUẢN LÝ CÔNG</t>
   </si>
   <si>
-    <t xml:space="preserve"> XÂY DỰNG </t>
-  </si>
-  <si>
     <t>QUẢN TRỊ KINH DOANH</t>
   </si>
   <si>
@@ -1937,7 +1934,7 @@
     <t>TÀI CHÍNH NGÂN HÀNG</t>
   </si>
   <si>
-    <t xml:space="preserve"> LUẬT</t>
+    <t>XÂY DỰNG</t>
   </si>
 </sst>
 </file>
@@ -2315,18 +2312,18 @@
   <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271:E482"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2343,7 +2340,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>191</v>
       </c>
@@ -2357,10 +2354,10 @@
         <v>568</v>
       </c>
       <c r="E2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>224</v>
       </c>
@@ -2374,10 +2371,10 @@
         <v>465</v>
       </c>
       <c r="E3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -2391,10 +2388,10 @@
         <v>568</v>
       </c>
       <c r="E4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>186</v>
       </c>
@@ -2408,10 +2405,10 @@
         <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -2425,10 +2422,10 @@
         <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>227</v>
       </c>
@@ -2442,10 +2439,10 @@
         <v>568</v>
       </c>
       <c r="E7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -2459,10 +2456,10 @@
         <v>568</v>
       </c>
       <c r="E8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>229</v>
       </c>
@@ -2476,10 +2473,10 @@
         <v>569</v>
       </c>
       <c r="E9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>230</v>
       </c>
@@ -2493,10 +2490,10 @@
         <v>570</v>
       </c>
       <c r="E10" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
@@ -2510,10 +2507,10 @@
         <v>568</v>
       </c>
       <c r="E11" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>231</v>
       </c>
@@ -2527,10 +2524,10 @@
         <v>569</v>
       </c>
       <c r="E12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>188</v>
       </c>
@@ -2544,10 +2541,10 @@
         <v>571</v>
       </c>
       <c r="E13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>232</v>
       </c>
@@ -2561,10 +2558,10 @@
         <v>570</v>
       </c>
       <c r="E14" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
@@ -2578,10 +2575,10 @@
         <v>572</v>
       </c>
       <c r="E15" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2595,10 +2592,10 @@
         <v>573</v>
       </c>
       <c r="E16" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>234</v>
       </c>
@@ -2612,10 +2609,10 @@
         <v>572</v>
       </c>
       <c r="E17" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2629,10 +2626,10 @@
         <v>574</v>
       </c>
       <c r="E18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>181</v>
       </c>
@@ -2646,10 +2643,10 @@
         <v>577</v>
       </c>
       <c r="E19" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>178</v>
       </c>
@@ -2663,10 +2660,10 @@
         <v>578</v>
       </c>
       <c r="E20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>238</v>
       </c>
@@ -2680,10 +2677,10 @@
         <v>579</v>
       </c>
       <c r="E21" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
@@ -2697,10 +2694,10 @@
         <v>578</v>
       </c>
       <c r="E22" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
@@ -2714,10 +2711,10 @@
         <v>577</v>
       </c>
       <c r="E23" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
@@ -2731,10 +2728,10 @@
         <v>577</v>
       </c>
       <c r="E24" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>176</v>
       </c>
@@ -2748,10 +2745,10 @@
         <v>580</v>
       </c>
       <c r="E25" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>183</v>
       </c>
@@ -2765,10 +2762,10 @@
         <v>577</v>
       </c>
       <c r="E26" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>174</v>
       </c>
@@ -2782,10 +2779,10 @@
         <v>580</v>
       </c>
       <c r="E27" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>234</v>
       </c>
@@ -2799,10 +2796,10 @@
         <v>581</v>
       </c>
       <c r="E28" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>195</v>
       </c>
@@ -2816,10 +2813,10 @@
         <v>581</v>
       </c>
       <c r="E29" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -2833,10 +2830,10 @@
         <v>577</v>
       </c>
       <c r="E30" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
@@ -2850,10 +2847,10 @@
         <v>576</v>
       </c>
       <c r="E31" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>242</v>
       </c>
@@ -2867,10 +2864,10 @@
         <v>582</v>
       </c>
       <c r="E32" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>243</v>
       </c>
@@ -2884,10 +2881,10 @@
         <v>582</v>
       </c>
       <c r="E33" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -2901,10 +2898,10 @@
         <v>582</v>
       </c>
       <c r="E34" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>169</v>
       </c>
@@ -2918,10 +2915,10 @@
         <v>582</v>
       </c>
       <c r="E35" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>166</v>
       </c>
@@ -2935,10 +2932,10 @@
         <v>582</v>
       </c>
       <c r="E36" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>244</v>
       </c>
@@ -2952,10 +2949,10 @@
         <v>582</v>
       </c>
       <c r="E37" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>187</v>
       </c>
@@ -2969,10 +2966,10 @@
         <v>582</v>
       </c>
       <c r="E38" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>185</v>
       </c>
@@ -2986,10 +2983,10 @@
         <v>582</v>
       </c>
       <c r="E39" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>245</v>
       </c>
@@ -3003,10 +3000,10 @@
         <v>582</v>
       </c>
       <c r="E40" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>167</v>
       </c>
@@ -3020,10 +3017,10 @@
         <v>582</v>
       </c>
       <c r="E41" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>190</v>
       </c>
@@ -3037,10 +3034,10 @@
         <v>582</v>
       </c>
       <c r="E42" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>189</v>
       </c>
@@ -3054,10 +3051,10 @@
         <v>582</v>
       </c>
       <c r="E43" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>168</v>
       </c>
@@ -3071,10 +3068,10 @@
         <v>581</v>
       </c>
       <c r="E44" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
@@ -3088,10 +3085,10 @@
         <v>583</v>
       </c>
       <c r="E45" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
@@ -3105,10 +3102,10 @@
         <v>584</v>
       </c>
       <c r="E46" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>234</v>
       </c>
@@ -3122,10 +3119,10 @@
         <v>578</v>
       </c>
       <c r="E47" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>172</v>
       </c>
@@ -3139,10 +3136,10 @@
         <v>587</v>
       </c>
       <c r="E48" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>181</v>
       </c>
@@ -3156,10 +3153,10 @@
         <v>588</v>
       </c>
       <c r="E49" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>175</v>
       </c>
@@ -3173,10 +3170,10 @@
         <v>588</v>
       </c>
       <c r="E50" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>183</v>
       </c>
@@ -3190,10 +3187,10 @@
         <v>587</v>
       </c>
       <c r="E51" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>176</v>
       </c>
@@ -3207,10 +3204,10 @@
         <v>588</v>
       </c>
       <c r="E52" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>178</v>
       </c>
@@ -3224,10 +3221,10 @@
         <v>587</v>
       </c>
       <c r="E53" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
@@ -3241,10 +3238,10 @@
         <v>588</v>
       </c>
       <c r="E54" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>238</v>
       </c>
@@ -3258,10 +3255,10 @@
         <v>589</v>
       </c>
       <c r="E55" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -3275,10 +3272,10 @@
         <v>588</v>
       </c>
       <c r="E56" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
@@ -3292,10 +3289,10 @@
         <v>590</v>
       </c>
       <c r="E57" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>225</v>
       </c>
@@ -3309,10 +3306,10 @@
         <v>591</v>
       </c>
       <c r="E58" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>227</v>
       </c>
@@ -3326,10 +3323,10 @@
         <v>590</v>
       </c>
       <c r="E59" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>192</v>
       </c>
@@ -3343,10 +3340,10 @@
         <v>591</v>
       </c>
       <c r="E60" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
@@ -3360,10 +3357,10 @@
         <v>590</v>
       </c>
       <c r="E61" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>186</v>
       </c>
@@ -3377,10 +3374,10 @@
         <v>592</v>
       </c>
       <c r="E62" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>158</v>
       </c>
@@ -3394,10 +3391,10 @@
         <v>571</v>
       </c>
       <c r="E63" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>185</v>
       </c>
@@ -3411,10 +3408,10 @@
         <v>593</v>
       </c>
       <c r="E64" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>189</v>
       </c>
@@ -3428,10 +3425,10 @@
         <v>584</v>
       </c>
       <c r="E65" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>187</v>
       </c>
@@ -3445,10 +3442,10 @@
         <v>584</v>
       </c>
       <c r="E66" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>190</v>
       </c>
@@ -3462,10 +3459,10 @@
         <v>584</v>
       </c>
       <c r="E67" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>225</v>
       </c>
@@ -3479,10 +3476,10 @@
         <v>594</v>
       </c>
       <c r="E68" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
@@ -3496,10 +3493,10 @@
         <v>594</v>
       </c>
       <c r="E69" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>186</v>
       </c>
@@ -3513,10 +3510,10 @@
         <v>594</v>
       </c>
       <c r="E70" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>191</v>
       </c>
@@ -3530,10 +3527,10 @@
         <v>593</v>
       </c>
       <c r="E71" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>224</v>
       </c>
@@ -3547,10 +3544,10 @@
         <v>594</v>
       </c>
       <c r="E72" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>232</v>
       </c>
@@ -3564,10 +3561,10 @@
         <v>594</v>
       </c>
       <c r="E73" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>194</v>
       </c>
@@ -3581,10 +3578,10 @@
         <v>573</v>
       </c>
       <c r="E74" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>245</v>
       </c>
@@ -3598,10 +3595,10 @@
         <v>598</v>
       </c>
       <c r="E75" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>256</v>
       </c>
@@ -3615,10 +3612,10 @@
         <v>465</v>
       </c>
       <c r="E76" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>244</v>
       </c>
@@ -3632,10 +3629,10 @@
         <v>585</v>
       </c>
       <c r="E77" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>228</v>
       </c>
@@ -3649,10 +3646,10 @@
         <v>585</v>
       </c>
       <c r="E78" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>257</v>
       </c>
@@ -3666,10 +3663,10 @@
         <v>598</v>
       </c>
       <c r="E79" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>243</v>
       </c>
@@ -3683,10 +3680,10 @@
         <v>573</v>
       </c>
       <c r="E80" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>256</v>
       </c>
@@ -3700,10 +3697,10 @@
         <v>579</v>
       </c>
       <c r="E81" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>257</v>
       </c>
@@ -3717,10 +3714,10 @@
         <v>577</v>
       </c>
       <c r="E82" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>243</v>
       </c>
@@ -3734,10 +3731,10 @@
         <v>579</v>
       </c>
       <c r="E83" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>194</v>
       </c>
@@ -3751,10 +3748,10 @@
         <v>577</v>
       </c>
       <c r="E84" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>231</v>
       </c>
@@ -3768,10 +3765,10 @@
         <v>577</v>
       </c>
       <c r="E85" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>244</v>
       </c>
@@ -3785,10 +3782,10 @@
         <v>577</v>
       </c>
       <c r="E86" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>229</v>
       </c>
@@ -3802,10 +3799,10 @@
         <v>579</v>
       </c>
       <c r="E87" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>187</v>
       </c>
@@ -3819,10 +3816,10 @@
         <v>599</v>
       </c>
       <c r="E88" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>192</v>
       </c>
@@ -3836,10 +3833,10 @@
         <v>589</v>
       </c>
       <c r="E89" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>190</v>
       </c>
@@ -3853,10 +3850,10 @@
         <v>592</v>
       </c>
       <c r="E90" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>227</v>
       </c>
@@ -3870,10 +3867,10 @@
         <v>590</v>
       </c>
       <c r="E91" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>224</v>
       </c>
@@ -3887,10 +3884,10 @@
         <v>586</v>
       </c>
       <c r="E92" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>185</v>
       </c>
@@ -3904,10 +3901,10 @@
         <v>592</v>
       </c>
       <c r="E93" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>225</v>
       </c>
@@ -3921,10 +3918,10 @@
         <v>589</v>
       </c>
       <c r="E94" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
@@ -3938,10 +3935,10 @@
         <v>592</v>
       </c>
       <c r="E95" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>232</v>
       </c>
@@ -3955,10 +3952,10 @@
         <v>589</v>
       </c>
       <c r="E96" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>191</v>
       </c>
@@ -3972,10 +3969,10 @@
         <v>600</v>
       </c>
       <c r="E97" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>189</v>
       </c>
@@ -3989,10 +3986,10 @@
         <v>592</v>
       </c>
       <c r="E98" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>181</v>
       </c>
@@ -4006,10 +4003,10 @@
         <v>587</v>
       </c>
       <c r="E99" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>172</v>
       </c>
@@ -4023,10 +4020,10 @@
         <v>601</v>
       </c>
       <c r="E100" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>238</v>
       </c>
@@ -4040,10 +4037,10 @@
         <v>459</v>
       </c>
       <c r="E101" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>176</v>
       </c>
@@ -4057,10 +4054,10 @@
         <v>459</v>
       </c>
       <c r="E102" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>174</v>
       </c>
@@ -4074,10 +4071,10 @@
         <v>587</v>
       </c>
       <c r="E103" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>178</v>
       </c>
@@ -4091,10 +4088,10 @@
         <v>601</v>
       </c>
       <c r="E104" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>175</v>
       </c>
@@ -4108,10 +4105,10 @@
         <v>459</v>
       </c>
       <c r="E105" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>183</v>
       </c>
@@ -4125,10 +4122,10 @@
         <v>601</v>
       </c>
       <c r="E106" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>173</v>
       </c>
@@ -4142,10 +4139,10 @@
         <v>601</v>
       </c>
       <c r="E107" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>162</v>
       </c>
@@ -4159,10 +4156,10 @@
         <v>602</v>
       </c>
       <c r="E108" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>230</v>
       </c>
@@ -4176,10 +4173,10 @@
         <v>602</v>
       </c>
       <c r="E109" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>168</v>
       </c>
@@ -4193,10 +4190,10 @@
         <v>602</v>
       </c>
       <c r="E110" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>165</v>
       </c>
@@ -4210,10 +4207,10 @@
         <v>603</v>
       </c>
       <c r="E111" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>191</v>
       </c>
@@ -4227,10 +4224,10 @@
         <v>595</v>
       </c>
       <c r="E112" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>186</v>
       </c>
@@ -4244,10 +4241,10 @@
         <v>620</v>
       </c>
       <c r="E113" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
@@ -4261,10 +4258,10 @@
         <v>595</v>
       </c>
       <c r="E114" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>192</v>
       </c>
@@ -4278,10 +4275,10 @@
         <v>596</v>
       </c>
       <c r="E115" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>225</v>
       </c>
@@ -4295,10 +4292,10 @@
         <v>597</v>
       </c>
       <c r="E116" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
@@ -4312,10 +4309,10 @@
         <v>604</v>
       </c>
       <c r="E117" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>227</v>
       </c>
@@ -4329,10 +4326,10 @@
         <v>603</v>
       </c>
       <c r="E118" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>189</v>
       </c>
@@ -4346,10 +4343,10 @@
         <v>603</v>
       </c>
       <c r="E119" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>190</v>
       </c>
@@ -4363,10 +4360,10 @@
         <v>605</v>
       </c>
       <c r="E120" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>232</v>
       </c>
@@ -4380,10 +4377,10 @@
         <v>605</v>
       </c>
       <c r="E121" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>185</v>
       </c>
@@ -4397,10 +4394,10 @@
         <v>605</v>
       </c>
       <c r="E122" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -4414,10 +4411,10 @@
         <v>574</v>
       </c>
       <c r="E123" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>257</v>
       </c>
@@ -4431,10 +4428,10 @@
         <v>574</v>
       </c>
       <c r="E124" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>245</v>
       </c>
@@ -4448,10 +4445,10 @@
         <v>585</v>
       </c>
       <c r="E125" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>243</v>
       </c>
@@ -4465,10 +4462,10 @@
         <v>574</v>
       </c>
       <c r="E126" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>229</v>
       </c>
@@ -4482,10 +4479,10 @@
         <v>574</v>
       </c>
       <c r="E127" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>230</v>
       </c>
@@ -4499,10 +4496,10 @@
         <v>465</v>
       </c>
       <c r="E128" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>242</v>
       </c>
@@ -4516,10 +4513,10 @@
         <v>603</v>
       </c>
       <c r="E129" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>166</v>
       </c>
@@ -4533,10 +4530,10 @@
         <v>603</v>
       </c>
       <c r="E130" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>169</v>
       </c>
@@ -4550,10 +4547,10 @@
         <v>605</v>
       </c>
       <c r="E131" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>188</v>
       </c>
@@ -4567,10 +4564,10 @@
         <v>605</v>
       </c>
       <c r="E132" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>167</v>
       </c>
@@ -4584,10 +4581,10 @@
         <v>606</v>
       </c>
       <c r="E133" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>242</v>
       </c>
@@ -4601,10 +4598,10 @@
         <v>607</v>
       </c>
       <c r="E134" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>166</v>
       </c>
@@ -4618,10 +4615,10 @@
         <v>607</v>
       </c>
       <c r="E135" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>167</v>
       </c>
@@ -4635,10 +4632,10 @@
         <v>572</v>
       </c>
       <c r="E136" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>162</v>
       </c>
@@ -4652,10 +4649,10 @@
         <v>607</v>
       </c>
       <c r="E137" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>168</v>
       </c>
@@ -4669,10 +4666,10 @@
         <v>584</v>
       </c>
       <c r="E138" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>169</v>
       </c>
@@ -4686,10 +4683,10 @@
         <v>584</v>
       </c>
       <c r="E139" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>179</v>
       </c>
@@ -4703,10 +4700,10 @@
         <v>608</v>
       </c>
       <c r="E140" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>9</v>
       </c>
@@ -4720,10 +4717,10 @@
         <v>608</v>
       </c>
       <c r="E141" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>236</v>
       </c>
@@ -4737,10 +4734,10 @@
         <v>608</v>
       </c>
       <c r="E142" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>10</v>
       </c>
@@ -4754,10 +4751,10 @@
         <v>608</v>
       </c>
       <c r="E143" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>73</v>
       </c>
@@ -4771,10 +4768,10 @@
         <v>608</v>
       </c>
       <c r="E144" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>177</v>
       </c>
@@ -4788,10 +4785,10 @@
         <v>608</v>
       </c>
       <c r="E145" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -4805,10 +4802,10 @@
         <v>608</v>
       </c>
       <c r="E146" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>245</v>
       </c>
@@ -4822,10 +4819,10 @@
         <v>608</v>
       </c>
       <c r="E147" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>228</v>
       </c>
@@ -4839,10 +4836,10 @@
         <v>609</v>
       </c>
       <c r="E148" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>234</v>
       </c>
@@ -4856,10 +4853,10 @@
         <v>575</v>
       </c>
       <c r="E149" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>170</v>
       </c>
@@ -4873,10 +4870,10 @@
         <v>596</v>
       </c>
       <c r="E150" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>195</v>
       </c>
@@ -4890,10 +4887,10 @@
         <v>597</v>
       </c>
       <c r="E151" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>257</v>
       </c>
@@ -4907,10 +4904,10 @@
         <v>610</v>
       </c>
       <c r="E152" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>162</v>
       </c>
@@ -4924,10 +4921,10 @@
         <v>610</v>
       </c>
       <c r="E153" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>231</v>
       </c>
@@ -4941,10 +4938,10 @@
         <v>610</v>
       </c>
       <c r="E154" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>244</v>
       </c>
@@ -4958,10 +4955,10 @@
         <v>592</v>
       </c>
       <c r="E155" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>231</v>
       </c>
@@ -4975,10 +4972,10 @@
         <v>592</v>
       </c>
       <c r="E156" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>245</v>
       </c>
@@ -4992,10 +4989,10 @@
         <v>586</v>
       </c>
       <c r="E157" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>243</v>
       </c>
@@ -5009,10 +5006,10 @@
         <v>586</v>
       </c>
       <c r="E158" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>276</v>
       </c>
@@ -5026,10 +5023,10 @@
         <v>603</v>
       </c>
       <c r="E159" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -5043,10 +5040,10 @@
         <v>610</v>
       </c>
       <c r="E160" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>75</v>
       </c>
@@ -5060,10 +5057,10 @@
         <v>610</v>
       </c>
       <c r="E161" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>76</v>
       </c>
@@ -5077,10 +5074,10 @@
         <v>573</v>
       </c>
       <c r="E162" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>152</v>
       </c>
@@ -5094,10 +5091,10 @@
         <v>573</v>
       </c>
       <c r="E163" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>175</v>
       </c>
@@ -5111,10 +5108,10 @@
         <v>594</v>
       </c>
       <c r="E164" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>178</v>
       </c>
@@ -5128,10 +5125,10 @@
         <v>611</v>
       </c>
       <c r="E165" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>173</v>
       </c>
@@ -5145,10 +5142,10 @@
         <v>572</v>
       </c>
       <c r="E166" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>238</v>
       </c>
@@ -5162,10 +5159,10 @@
         <v>572</v>
       </c>
       <c r="E167" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>181</v>
       </c>
@@ -5179,10 +5176,10 @@
         <v>574</v>
       </c>
       <c r="E168" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>176</v>
       </c>
@@ -5196,10 +5193,10 @@
         <v>593</v>
       </c>
       <c r="E169" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>183</v>
       </c>
@@ -5213,10 +5210,10 @@
         <v>574</v>
       </c>
       <c r="E170" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -5230,10 +5227,10 @@
         <v>594</v>
       </c>
       <c r="E171" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
@@ -5247,10 +5244,10 @@
         <v>572</v>
       </c>
       <c r="E172" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>242</v>
       </c>
@@ -5264,10 +5261,10 @@
         <v>590</v>
       </c>
       <c r="E173" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>167</v>
       </c>
@@ -5281,10 +5278,10 @@
         <v>589</v>
       </c>
       <c r="E174" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>166</v>
       </c>
@@ -5298,10 +5295,10 @@
         <v>592</v>
       </c>
       <c r="E175" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
@@ -5315,10 +5312,10 @@
         <v>600</v>
       </c>
       <c r="E176" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>169</v>
       </c>
@@ -5332,10 +5329,10 @@
         <v>599</v>
       </c>
       <c r="E177" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>46</v>
       </c>
@@ -5349,10 +5346,10 @@
         <v>575</v>
       </c>
       <c r="E178" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>228</v>
       </c>
@@ -5366,10 +5363,10 @@
         <v>577</v>
       </c>
       <c r="E179" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>231</v>
       </c>
@@ -5383,10 +5380,10 @@
         <v>612</v>
       </c>
       <c r="E180" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>243</v>
       </c>
@@ -5400,10 +5397,10 @@
         <v>612</v>
       </c>
       <c r="E181" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>256</v>
       </c>
@@ -5417,10 +5414,10 @@
         <v>602</v>
       </c>
       <c r="E182" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
@@ -5434,10 +5431,10 @@
         <v>602</v>
       </c>
       <c r="E183" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>165</v>
       </c>
@@ -5451,10 +5448,10 @@
         <v>588</v>
       </c>
       <c r="E184" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>194</v>
       </c>
@@ -5468,10 +5465,10 @@
         <v>568</v>
       </c>
       <c r="E185" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>230</v>
       </c>
@@ -5485,10 +5482,10 @@
         <v>609</v>
       </c>
       <c r="E186" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>169</v>
       </c>
@@ -5502,10 +5499,10 @@
         <v>609</v>
       </c>
       <c r="E187" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>168</v>
       </c>
@@ -5519,10 +5516,10 @@
         <v>613</v>
       </c>
       <c r="E188" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -5536,10 +5533,10 @@
         <v>609</v>
       </c>
       <c r="E189" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
@@ -5553,10 +5550,10 @@
         <v>613</v>
       </c>
       <c r="E190" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>167</v>
       </c>
@@ -5570,10 +5567,10 @@
         <v>609</v>
       </c>
       <c r="E191" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>165</v>
       </c>
@@ -5587,10 +5584,10 @@
         <v>613</v>
       </c>
       <c r="E192" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>166</v>
       </c>
@@ -5604,10 +5601,10 @@
         <v>613</v>
       </c>
       <c r="E193" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>185</v>
       </c>
@@ -5621,10 +5618,10 @@
         <v>609</v>
       </c>
       <c r="E194" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>242</v>
       </c>
@@ -5638,10 +5635,10 @@
         <v>613</v>
       </c>
       <c r="E195" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>232</v>
       </c>
@@ -5655,10 +5652,10 @@
         <v>613</v>
       </c>
       <c r="E196" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>190</v>
       </c>
@@ -5672,10 +5669,10 @@
         <v>609</v>
       </c>
       <c r="E197" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>189</v>
       </c>
@@ -5689,10 +5686,10 @@
         <v>609</v>
       </c>
       <c r="E198" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>17</v>
       </c>
@@ -5706,10 +5703,10 @@
         <v>464</v>
       </c>
       <c r="E199" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>12</v>
       </c>
@@ -5723,10 +5720,10 @@
         <v>465</v>
       </c>
       <c r="E200" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>20</v>
       </c>
@@ -5740,10 +5737,10 @@
         <v>466</v>
       </c>
       <c r="E201" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>22</v>
       </c>
@@ -5757,10 +5754,10 @@
         <v>467</v>
       </c>
       <c r="E202" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>12</v>
       </c>
@@ -5774,10 +5771,10 @@
         <v>468</v>
       </c>
       <c r="E203" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -5791,10 +5788,10 @@
         <v>466</v>
       </c>
       <c r="E204" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>20</v>
       </c>
@@ -5808,10 +5805,10 @@
         <v>469</v>
       </c>
       <c r="E205" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>12</v>
       </c>
@@ -5825,10 +5822,10 @@
         <v>470</v>
       </c>
       <c r="E206" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>12</v>
       </c>
@@ -5842,10 +5839,10 @@
         <v>470</v>
       </c>
       <c r="E207" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>12</v>
       </c>
@@ -5859,10 +5856,10 @@
         <v>471</v>
       </c>
       <c r="E208" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>160</v>
       </c>
@@ -5876,10 +5873,10 @@
         <v>534</v>
       </c>
       <c r="E209" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>49</v>
       </c>
@@ -5893,10 +5890,10 @@
         <v>535</v>
       </c>
       <c r="E210" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>161</v>
       </c>
@@ -5910,10 +5907,10 @@
         <v>536</v>
       </c>
       <c r="E211" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>162</v>
       </c>
@@ -5927,10 +5924,10 @@
         <v>534</v>
       </c>
       <c r="E212" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>150</v>
       </c>
@@ -5944,10 +5941,10 @@
         <v>535</v>
       </c>
       <c r="E213" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>76</v>
       </c>
@@ -5961,10 +5958,10 @@
         <v>535</v>
       </c>
       <c r="E214" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>35</v>
       </c>
@@ -5978,10 +5975,10 @@
         <v>535</v>
       </c>
       <c r="E215" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>151</v>
       </c>
@@ -5995,10 +5992,10 @@
         <v>535</v>
       </c>
       <c r="E216" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>163</v>
       </c>
@@ -6012,10 +6009,10 @@
         <v>535</v>
       </c>
       <c r="E217" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>75</v>
       </c>
@@ -6029,10 +6026,10 @@
         <v>535</v>
       </c>
       <c r="E218" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>151</v>
       </c>
@@ -6046,10 +6043,10 @@
         <v>534</v>
       </c>
       <c r="E219" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>160</v>
       </c>
@@ -6063,10 +6060,10 @@
         <v>534</v>
       </c>
       <c r="E220" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>150</v>
       </c>
@@ -6080,10 +6077,10 @@
         <v>534</v>
       </c>
       <c r="E221" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>156</v>
       </c>
@@ -6097,10 +6094,10 @@
         <v>534</v>
       </c>
       <c r="E222" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>30</v>
       </c>
@@ -6114,10 +6111,10 @@
         <v>534</v>
       </c>
       <c r="E223" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>33</v>
       </c>
@@ -6131,10 +6128,10 @@
         <v>534</v>
       </c>
       <c r="E224" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>165</v>
       </c>
@@ -6148,10 +6145,10 @@
         <v>536</v>
       </c>
       <c r="E225" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>166</v>
       </c>
@@ -6165,10 +6162,10 @@
         <v>537</v>
       </c>
       <c r="E226" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>167</v>
       </c>
@@ -6182,10 +6179,10 @@
         <v>535</v>
       </c>
       <c r="E227" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>168</v>
       </c>
@@ -6199,10 +6196,10 @@
         <v>534</v>
       </c>
       <c r="E228" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>169</v>
       </c>
@@ -6216,10 +6213,10 @@
         <v>535</v>
       </c>
       <c r="E229" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>170</v>
       </c>
@@ -6233,10 +6230,10 @@
         <v>535</v>
       </c>
       <c r="E230" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>151</v>
       </c>
@@ -6250,10 +6247,10 @@
         <v>544</v>
       </c>
       <c r="E231" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>185</v>
       </c>
@@ -6267,10 +6264,10 @@
         <v>539</v>
       </c>
       <c r="E232" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>186</v>
       </c>
@@ -6284,10 +6281,10 @@
         <v>544</v>
       </c>
       <c r="E233" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>187</v>
       </c>
@@ -6301,10 +6298,10 @@
         <v>543</v>
       </c>
       <c r="E234" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>74</v>
       </c>
@@ -6318,10 +6315,10 @@
         <v>545</v>
       </c>
       <c r="E235" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>188</v>
       </c>
@@ -6335,10 +6332,10 @@
         <v>543</v>
       </c>
       <c r="E236" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>170</v>
       </c>
@@ -6352,10 +6349,10 @@
         <v>543</v>
       </c>
       <c r="E237" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>189</v>
       </c>
@@ -6369,10 +6366,10 @@
         <v>544</v>
       </c>
       <c r="E238" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>70</v>
       </c>
@@ -6386,10 +6383,10 @@
         <v>539</v>
       </c>
       <c r="E239" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>179</v>
       </c>
@@ -6403,10 +6400,10 @@
         <v>544</v>
       </c>
       <c r="E240" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>190</v>
       </c>
@@ -6420,10 +6417,10 @@
         <v>543</v>
       </c>
       <c r="E241" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>180</v>
       </c>
@@ -6437,10 +6434,10 @@
         <v>543</v>
       </c>
       <c r="E242" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>191</v>
       </c>
@@ -6454,10 +6451,10 @@
         <v>543</v>
       </c>
       <c r="E243" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>192</v>
       </c>
@@ -6471,10 +6468,10 @@
         <v>543</v>
       </c>
       <c r="E244" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>51</v>
       </c>
@@ -6488,10 +6485,10 @@
         <v>527</v>
       </c>
       <c r="E245" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>15</v>
       </c>
@@ -6505,10 +6502,10 @@
         <v>528</v>
       </c>
       <c r="E246" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>149</v>
       </c>
@@ -6522,10 +6519,10 @@
         <v>528</v>
       </c>
       <c r="E247" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>73</v>
       </c>
@@ -6539,10 +6536,10 @@
         <v>529</v>
       </c>
       <c r="E248" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>150</v>
       </c>
@@ -6556,10 +6553,10 @@
         <v>529</v>
       </c>
       <c r="E249" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>151</v>
       </c>
@@ -6573,10 +6570,10 @@
         <v>530</v>
       </c>
       <c r="E250" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>152</v>
       </c>
@@ -6590,10 +6587,10 @@
         <v>527</v>
       </c>
       <c r="E251" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>3</v>
       </c>
@@ -6610,7 +6607,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>204</v>
       </c>
@@ -6627,7 +6624,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>206</v>
       </c>
@@ -6644,7 +6641,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>208</v>
       </c>
@@ -6661,7 +6658,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>209</v>
       </c>
@@ -6678,7 +6675,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>146</v>
       </c>
@@ -6695,7 +6692,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>209</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>3</v>
       </c>
@@ -6729,7 +6726,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>209</v>
       </c>
@@ -6746,7 +6743,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>208</v>
       </c>
@@ -6763,7 +6760,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>3</v>
       </c>
@@ -6780,7 +6777,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>215</v>
       </c>
@@ -6797,7 +6794,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>218</v>
       </c>
@@ -6814,7 +6811,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>204</v>
       </c>
@@ -6831,7 +6828,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>208</v>
       </c>
@@ -6848,7 +6845,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>209</v>
       </c>
@@ -6865,7 +6862,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>3</v>
       </c>
@@ -6882,7 +6879,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>146</v>
       </c>
@@ -6899,7 +6896,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>204</v>
       </c>
@@ -6916,7 +6913,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>156</v>
       </c>
@@ -6930,10 +6927,10 @@
         <v>532</v>
       </c>
       <c r="E271" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>158</v>
       </c>
@@ -6947,10 +6944,10 @@
         <v>533</v>
       </c>
       <c r="E272" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>149</v>
       </c>
@@ -6964,10 +6961,10 @@
         <v>538</v>
       </c>
       <c r="E273" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>172</v>
       </c>
@@ -6981,10 +6978,10 @@
         <v>538</v>
       </c>
       <c r="E274" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>173</v>
       </c>
@@ -6998,10 +6995,10 @@
         <v>539</v>
       </c>
       <c r="E275" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>174</v>
       </c>
@@ -7015,10 +7012,10 @@
         <v>538</v>
       </c>
       <c r="E276" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>175</v>
       </c>
@@ -7032,10 +7029,10 @@
         <v>539</v>
       </c>
       <c r="E277" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>176</v>
       </c>
@@ -7049,10 +7046,10 @@
         <v>540</v>
       </c>
       <c r="E278" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>51</v>
       </c>
@@ -7066,10 +7063,10 @@
         <v>538</v>
       </c>
       <c r="E279" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>109</v>
       </c>
@@ -7083,10 +7080,10 @@
         <v>538</v>
       </c>
       <c r="E280" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>177</v>
       </c>
@@ -7100,10 +7097,10 @@
         <v>540</v>
       </c>
       <c r="E281" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>178</v>
       </c>
@@ -7117,10 +7114,10 @@
         <v>540</v>
       </c>
       <c r="E282" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>179</v>
       </c>
@@ -7134,10 +7131,10 @@
         <v>538</v>
       </c>
       <c r="E283" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>70</v>
       </c>
@@ -7151,10 +7148,10 @@
         <v>538</v>
       </c>
       <c r="E284" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>180</v>
       </c>
@@ -7168,10 +7165,10 @@
         <v>540</v>
       </c>
       <c r="E285" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>181</v>
       </c>
@@ -7185,10 +7182,10 @@
         <v>539</v>
       </c>
       <c r="E286" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>174</v>
       </c>
@@ -7202,10 +7199,10 @@
         <v>541</v>
       </c>
       <c r="E287" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>183</v>
       </c>
@@ -7219,10 +7216,10 @@
         <v>541</v>
       </c>
       <c r="E288" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>178</v>
       </c>
@@ -7236,10 +7233,10 @@
         <v>542</v>
       </c>
       <c r="E289" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>15</v>
       </c>
@@ -7253,10 +7250,10 @@
         <v>543</v>
       </c>
       <c r="E290" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>175</v>
       </c>
@@ -7270,10 +7267,10 @@
         <v>542</v>
       </c>
       <c r="E291" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>173</v>
       </c>
@@ -7287,10 +7284,10 @@
         <v>542</v>
       </c>
       <c r="E292" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>149</v>
       </c>
@@ -7304,10 +7301,10 @@
         <v>543</v>
       </c>
       <c r="E293" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>176</v>
       </c>
@@ -7321,10 +7318,10 @@
         <v>541</v>
       </c>
       <c r="E294" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>177</v>
       </c>
@@ -7338,10 +7335,10 @@
         <v>542</v>
       </c>
       <c r="E295" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>181</v>
       </c>
@@ -7355,10 +7352,10 @@
         <v>541</v>
       </c>
       <c r="E296" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>51</v>
       </c>
@@ -7372,10 +7369,10 @@
         <v>542</v>
       </c>
       <c r="E297" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>127</v>
       </c>
@@ -7389,10 +7386,10 @@
         <v>541</v>
       </c>
       <c r="E298" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>172</v>
       </c>
@@ -7406,10 +7403,10 @@
         <v>541</v>
       </c>
       <c r="E299" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -7426,7 +7423,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>14</v>
       </c>
@@ -7443,7 +7440,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>15</v>
       </c>
@@ -7460,7 +7457,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>5</v>
       </c>
@@ -7477,7 +7474,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>6</v>
       </c>
@@ -7494,7 +7491,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>7</v>
       </c>
@@ -7511,7 +7508,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>8</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>9</v>
       </c>
@@ -7545,7 +7542,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>10</v>
       </c>
@@ -7562,7 +7559,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>236</v>
       </c>
@@ -7579,7 +7576,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>9</v>
       </c>
@@ -7596,7 +7593,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>10</v>
       </c>
@@ -7613,7 +7610,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>6</v>
       </c>
@@ -7630,7 +7627,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>5</v>
       </c>
@@ -7647,7 +7644,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>10</v>
       </c>
@@ -7664,7 +7661,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>6</v>
       </c>
@@ -7681,7 +7678,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>5</v>
       </c>
@@ -7698,7 +7695,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>236</v>
       </c>
@@ -7715,7 +7712,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>7</v>
       </c>
@@ -7732,7 +7729,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>9</v>
       </c>
@@ -7749,7 +7746,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>7</v>
       </c>
@@ -7766,7 +7763,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>10</v>
       </c>
@@ -7783,7 +7780,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>236</v>
       </c>
@@ -7800,7 +7797,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>5</v>
       </c>
@@ -7817,7 +7814,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>9</v>
       </c>
@@ -7834,7 +7831,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>8</v>
       </c>
@@ -7851,7 +7848,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>6</v>
       </c>
@@ -7868,7 +7865,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>236</v>
       </c>
@@ -7885,7 +7882,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>91</v>
       </c>
@@ -7899,10 +7896,10 @@
         <v>501</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>93</v>
       </c>
@@ -7916,10 +7913,10 @@
         <v>502</v>
       </c>
       <c r="E329" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>95</v>
       </c>
@@ -7933,10 +7930,10 @@
         <v>503</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>97</v>
       </c>
@@ -7950,10 +7947,10 @@
         <v>501</v>
       </c>
       <c r="E331" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>99</v>
       </c>
@@ -7967,10 +7964,10 @@
         <v>503</v>
       </c>
       <c r="E332" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>93</v>
       </c>
@@ -7984,10 +7981,10 @@
         <v>504</v>
       </c>
       <c r="E333" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>101</v>
       </c>
@@ -8001,10 +7998,10 @@
         <v>501</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>99</v>
       </c>
@@ -8018,10 +8015,10 @@
         <v>505</v>
       </c>
       <c r="E335" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>104</v>
       </c>
@@ -8035,10 +8032,10 @@
         <v>506</v>
       </c>
       <c r="E336" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>93</v>
       </c>
@@ -8052,10 +8049,10 @@
         <v>506</v>
       </c>
       <c r="E337" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>104</v>
       </c>
@@ -8069,10 +8066,10 @@
         <v>497</v>
       </c>
       <c r="E338" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>95</v>
       </c>
@@ -8086,10 +8083,10 @@
         <v>497</v>
       </c>
       <c r="E339" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>104</v>
       </c>
@@ -8103,10 +8100,10 @@
         <v>507</v>
       </c>
       <c r="E340" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>95</v>
       </c>
@@ -8120,10 +8117,10 @@
         <v>507</v>
       </c>
       <c r="E341" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>107</v>
       </c>
@@ -8137,10 +8134,10 @@
         <v>508</v>
       </c>
       <c r="E342" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>99</v>
       </c>
@@ -8154,10 +8151,10 @@
         <v>504</v>
       </c>
       <c r="E343" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>109</v>
       </c>
@@ -8171,10 +8168,10 @@
         <v>501</v>
       </c>
       <c r="E344" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>111</v>
       </c>
@@ -8188,10 +8185,10 @@
         <v>509</v>
       </c>
       <c r="E345" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>91</v>
       </c>
@@ -8205,10 +8202,10 @@
         <v>510</v>
       </c>
       <c r="E346" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>109</v>
       </c>
@@ -8222,10 +8219,10 @@
         <v>510</v>
       </c>
       <c r="E347" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>104</v>
       </c>
@@ -8239,10 +8236,10 @@
         <v>511</v>
       </c>
       <c r="E348" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>93</v>
       </c>
@@ -8256,10 +8253,10 @@
         <v>512</v>
       </c>
       <c r="E349" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>111</v>
       </c>
@@ -8273,10 +8270,10 @@
         <v>505</v>
       </c>
       <c r="E350" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>97</v>
       </c>
@@ -8290,10 +8287,10 @@
         <v>513</v>
       </c>
       <c r="E351" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>109</v>
       </c>
@@ -8307,10 +8304,10 @@
         <v>514</v>
       </c>
       <c r="E352" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>91</v>
       </c>
@@ -8324,10 +8321,10 @@
         <v>514</v>
       </c>
       <c r="E353" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>117</v>
       </c>
@@ -8341,10 +8338,10 @@
         <v>515</v>
       </c>
       <c r="E354" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>101</v>
       </c>
@@ -8358,10 +8355,10 @@
         <v>509</v>
       </c>
       <c r="E355" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>111</v>
       </c>
@@ -8375,10 +8372,10 @@
         <v>516</v>
       </c>
       <c r="E356" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>97</v>
       </c>
@@ -8392,10 +8389,10 @@
         <v>517</v>
       </c>
       <c r="E357" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>109</v>
       </c>
@@ -8409,10 +8406,10 @@
         <v>518</v>
       </c>
       <c r="E358" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>91</v>
       </c>
@@ -8426,10 +8423,10 @@
         <v>519</v>
       </c>
       <c r="E359" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>101</v>
       </c>
@@ -8443,10 +8440,10 @@
         <v>501</v>
       </c>
       <c r="E360" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>93</v>
       </c>
@@ -8460,10 +8457,10 @@
         <v>515</v>
       </c>
       <c r="E361" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>107</v>
       </c>
@@ -8477,10 +8474,10 @@
         <v>503</v>
       </c>
       <c r="E362" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>107</v>
       </c>
@@ -8494,10 +8491,10 @@
         <v>503</v>
       </c>
       <c r="E363" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>117</v>
       </c>
@@ -8511,10 +8508,10 @@
         <v>504</v>
       </c>
       <c r="E364" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>101</v>
       </c>
@@ -8528,10 +8525,10 @@
         <v>504</v>
       </c>
       <c r="E365" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>125</v>
       </c>
@@ -8545,10 +8542,10 @@
         <v>497</v>
       </c>
       <c r="E366" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>127</v>
       </c>
@@ -8562,10 +8559,10 @@
         <v>497</v>
       </c>
       <c r="E367" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>97</v>
       </c>
@@ -8579,10 +8576,10 @@
         <v>517</v>
       </c>
       <c r="E368" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>97</v>
       </c>
@@ -8596,10 +8593,10 @@
         <v>503</v>
       </c>
       <c r="E369" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>101</v>
       </c>
@@ -8613,10 +8610,10 @@
         <v>520</v>
       </c>
       <c r="E370" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>99</v>
       </c>
@@ -8630,10 +8627,10 @@
         <v>520</v>
       </c>
       <c r="E371" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>125</v>
       </c>
@@ -8647,10 +8644,10 @@
         <v>520</v>
       </c>
       <c r="E372" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>93</v>
       </c>
@@ -8664,10 +8661,10 @@
         <v>521</v>
       </c>
       <c r="E373" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>127</v>
       </c>
@@ -8681,10 +8678,10 @@
         <v>504</v>
       </c>
       <c r="E374" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>95</v>
       </c>
@@ -8698,10 +8695,10 @@
         <v>522</v>
       </c>
       <c r="E375" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>117</v>
       </c>
@@ -8715,10 +8712,10 @@
         <v>523</v>
       </c>
       <c r="E376" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>125</v>
       </c>
@@ -8732,10 +8729,10 @@
         <v>524</v>
       </c>
       <c r="E377" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>99</v>
       </c>
@@ -8749,10 +8746,10 @@
         <v>518</v>
       </c>
       <c r="E378" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>117</v>
       </c>
@@ -8766,10 +8763,10 @@
         <v>525</v>
       </c>
       <c r="E379" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>117</v>
       </c>
@@ -8783,10 +8780,10 @@
         <v>505</v>
       </c>
       <c r="E380" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>101</v>
       </c>
@@ -8800,10 +8797,10 @@
         <v>505</v>
       </c>
       <c r="E381" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>99</v>
       </c>
@@ -8817,10 +8814,10 @@
         <v>505</v>
       </c>
       <c r="E382" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>93</v>
       </c>
@@ -8834,10 +8831,10 @@
         <v>524</v>
       </c>
       <c r="E383" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>91</v>
       </c>
@@ -8851,10 +8848,10 @@
         <v>510</v>
       </c>
       <c r="E384" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>99</v>
       </c>
@@ -8868,10 +8865,10 @@
         <v>516</v>
       </c>
       <c r="E385" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>104</v>
       </c>
@@ -8885,10 +8882,10 @@
         <v>501</v>
       </c>
       <c r="E386" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>107</v>
       </c>
@@ -8902,10 +8899,10 @@
         <v>507</v>
       </c>
       <c r="E387" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>93</v>
       </c>
@@ -8919,10 +8916,10 @@
         <v>524</v>
       </c>
       <c r="E388" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>111</v>
       </c>
@@ -8936,10 +8933,10 @@
         <v>514</v>
       </c>
       <c r="E389" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>127</v>
       </c>
@@ -8953,10 +8950,10 @@
         <v>513</v>
       </c>
       <c r="E390" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>125</v>
       </c>
@@ -8970,10 +8967,10 @@
         <v>501</v>
       </c>
       <c r="E391" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>104</v>
       </c>
@@ -8987,10 +8984,10 @@
         <v>511</v>
       </c>
       <c r="E392" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>125</v>
       </c>
@@ -9004,10 +9001,10 @@
         <v>511</v>
       </c>
       <c r="E393" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>95</v>
       </c>
@@ -9021,10 +9018,10 @@
         <v>505</v>
       </c>
       <c r="E394" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>125</v>
       </c>
@@ -9038,10 +9035,10 @@
         <v>515</v>
       </c>
       <c r="E395" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>104</v>
       </c>
@@ -9055,10 +9052,10 @@
         <v>519</v>
       </c>
       <c r="E396" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>101</v>
       </c>
@@ -9072,10 +9069,10 @@
         <v>515</v>
       </c>
       <c r="E397" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>117</v>
       </c>
@@ -9089,10 +9086,10 @@
         <v>501</v>
       </c>
       <c r="E398" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>146</v>
       </c>
@@ -9106,10 +9103,10 @@
         <v>526</v>
       </c>
       <c r="E399" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>20</v>
       </c>
@@ -9123,10 +9120,10 @@
         <v>526</v>
       </c>
       <c r="E400" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>30</v>
       </c>
@@ -9140,10 +9137,10 @@
         <v>472</v>
       </c>
       <c r="E401" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>20</v>
       </c>
@@ -9157,10 +9154,10 @@
         <v>473</v>
       </c>
       <c r="E402" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>33</v>
       </c>
@@ -9174,10 +9171,10 @@
         <v>474</v>
       </c>
       <c r="E403" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>35</v>
       </c>
@@ -9191,10 +9188,10 @@
         <v>475</v>
       </c>
       <c r="E404" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>36</v>
       </c>
@@ -9208,10 +9205,10 @@
         <v>475</v>
       </c>
       <c r="E405" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>38</v>
       </c>
@@ -9225,10 +9222,10 @@
         <v>476</v>
       </c>
       <c r="E406" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>40</v>
       </c>
@@ -9242,10 +9239,10 @@
         <v>477</v>
       </c>
       <c r="E407" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>14</v>
       </c>
@@ -9259,10 +9256,10 @@
         <v>477</v>
       </c>
       <c r="E408" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>33</v>
       </c>
@@ -9276,10 +9273,10 @@
         <v>478</v>
       </c>
       <c r="E409" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>30</v>
       </c>
@@ -9293,10 +9290,10 @@
         <v>472</v>
       </c>
       <c r="E410" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>44</v>
       </c>
@@ -9310,10 +9307,10 @@
         <v>479</v>
       </c>
       <c r="E411" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>46</v>
       </c>
@@ -9327,10 +9324,10 @@
         <v>478</v>
       </c>
       <c r="E412" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>38</v>
       </c>
@@ -9344,10 +9341,10 @@
         <v>480</v>
       </c>
       <c r="E413" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>49</v>
       </c>
@@ -9361,10 +9358,10 @@
         <v>481</v>
       </c>
       <c r="E414" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>51</v>
       </c>
@@ -9378,10 +9375,10 @@
         <v>482</v>
       </c>
       <c r="E415" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>14</v>
       </c>
@@ -9395,10 +9392,10 @@
         <v>483</v>
       </c>
       <c r="E416" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>54</v>
       </c>
@@ -9412,10 +9409,10 @@
         <v>484</v>
       </c>
       <c r="E417" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>55</v>
       </c>
@@ -9429,10 +9426,10 @@
         <v>484</v>
       </c>
       <c r="E418" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>57</v>
       </c>
@@ -9446,10 +9443,10 @@
         <v>484</v>
       </c>
       <c r="E419" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>15</v>
       </c>
@@ -9463,10 +9460,10 @@
         <v>473</v>
       </c>
       <c r="E420" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>49</v>
       </c>
@@ -9480,10 +9477,10 @@
         <v>485</v>
       </c>
       <c r="E421" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>44</v>
       </c>
@@ -9497,10 +9494,10 @@
         <v>486</v>
       </c>
       <c r="E422" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>61</v>
       </c>
@@ -9514,10 +9511,10 @@
         <v>486</v>
       </c>
       <c r="E423" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>38</v>
       </c>
@@ -9531,10 +9528,10 @@
         <v>487</v>
       </c>
       <c r="E424" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>33</v>
       </c>
@@ -9548,10 +9545,10 @@
         <v>481</v>
       </c>
       <c r="E425" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>44</v>
       </c>
@@ -9565,10 +9562,10 @@
         <v>472</v>
       </c>
       <c r="E426" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>55</v>
       </c>
@@ -9582,10 +9579,10 @@
         <v>472</v>
       </c>
       <c r="E427" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>57</v>
       </c>
@@ -9599,10 +9596,10 @@
         <v>472</v>
       </c>
       <c r="E428" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>66</v>
       </c>
@@ -9616,10 +9613,10 @@
         <v>483</v>
       </c>
       <c r="E429" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>54</v>
       </c>
@@ -9633,10 +9630,10 @@
         <v>483</v>
       </c>
       <c r="E430" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>36</v>
       </c>
@@ -9650,10 +9647,10 @@
         <v>483</v>
       </c>
       <c r="E431" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>14</v>
       </c>
@@ -9667,10 +9664,10 @@
         <v>480</v>
       </c>
       <c r="E432" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>55</v>
       </c>
@@ -9684,10 +9681,10 @@
         <v>488</v>
       </c>
       <c r="E433" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>69</v>
       </c>
@@ -9701,10 +9698,10 @@
         <v>489</v>
       </c>
       <c r="E434" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>70</v>
       </c>
@@ -9718,10 +9715,10 @@
         <v>489</v>
       </c>
       <c r="E435" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>46</v>
       </c>
@@ -9735,10 +9732,10 @@
         <v>490</v>
       </c>
       <c r="E436" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>73</v>
       </c>
@@ -9752,10 +9749,10 @@
         <v>491</v>
       </c>
       <c r="E437" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>74</v>
       </c>
@@ -9769,10 +9766,10 @@
         <v>492</v>
       </c>
       <c r="E438" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>75</v>
       </c>
@@ -9786,10 +9783,10 @@
         <v>491</v>
       </c>
       <c r="E439" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>76</v>
       </c>
@@ -9803,10 +9800,10 @@
         <v>491</v>
       </c>
       <c r="E440" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>55</v>
       </c>
@@ -9820,10 +9817,10 @@
         <v>493</v>
       </c>
       <c r="E441" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>54</v>
       </c>
@@ -9837,10 +9834,10 @@
         <v>494</v>
       </c>
       <c r="E442" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>66</v>
       </c>
@@ -9854,10 +9851,10 @@
         <v>494</v>
       </c>
       <c r="E443" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>46</v>
       </c>
@@ -9871,10 +9868,10 @@
         <v>495</v>
       </c>
       <c r="E444" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>61</v>
       </c>
@@ -9888,10 +9885,10 @@
         <v>496</v>
       </c>
       <c r="E445" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>57</v>
       </c>
@@ -9905,10 +9902,10 @@
         <v>497</v>
       </c>
       <c r="E446" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>35</v>
       </c>
@@ -9922,10 +9919,10 @@
         <v>498</v>
       </c>
       <c r="E447" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>49</v>
       </c>
@@ -9939,10 +9936,10 @@
         <v>482</v>
       </c>
       <c r="E448" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>49</v>
       </c>
@@ -9956,10 +9953,10 @@
         <v>482</v>
       </c>
       <c r="E449" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>61</v>
       </c>
@@ -9973,10 +9970,10 @@
         <v>476</v>
       </c>
       <c r="E450" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>46</v>
       </c>
@@ -9990,10 +9987,10 @@
         <v>474</v>
       </c>
       <c r="E451" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>66</v>
       </c>
@@ -10007,10 +10004,10 @@
         <v>480</v>
       </c>
       <c r="E452" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>57</v>
       </c>
@@ -10024,10 +10021,10 @@
         <v>499</v>
       </c>
       <c r="E453" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>38</v>
       </c>
@@ -10041,10 +10038,10 @@
         <v>477</v>
       </c>
       <c r="E454" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>51</v>
       </c>
@@ -10058,10 +10055,10 @@
         <v>492</v>
       </c>
       <c r="E455" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>15</v>
       </c>
@@ -10075,10 +10072,10 @@
         <v>492</v>
       </c>
       <c r="E456" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>14</v>
       </c>
@@ -10092,10 +10089,10 @@
         <v>491</v>
       </c>
       <c r="E457" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>54</v>
       </c>
@@ -10109,10 +10106,10 @@
         <v>500</v>
       </c>
       <c r="E458" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>66</v>
       </c>
@@ -10126,10 +10123,10 @@
         <v>500</v>
       </c>
       <c r="E459" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>44</v>
       </c>
@@ -10143,10 +10140,10 @@
         <v>500</v>
       </c>
       <c r="E460" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>61</v>
       </c>
@@ -10160,10 +10157,10 @@
         <v>500</v>
       </c>
       <c r="E461" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>215</v>
       </c>
@@ -10177,10 +10174,10 @@
         <v>562</v>
       </c>
       <c r="E462" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>3</v>
       </c>
@@ -10194,10 +10191,10 @@
         <v>614</v>
       </c>
       <c r="E463" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>209</v>
       </c>
@@ -10211,10 +10208,10 @@
         <v>615</v>
       </c>
       <c r="E464" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>215</v>
       </c>
@@ -10228,10 +10225,10 @@
         <v>616</v>
       </c>
       <c r="E465" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>146</v>
       </c>
@@ -10245,10 +10242,10 @@
         <v>617</v>
       </c>
       <c r="E466" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>38</v>
       </c>
@@ -10262,10 +10259,10 @@
         <v>618</v>
       </c>
       <c r="E467" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>215</v>
       </c>
@@ -10279,10 +10276,10 @@
         <v>619</v>
       </c>
       <c r="E468" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>204</v>
       </c>
@@ -10296,10 +10293,10 @@
         <v>614</v>
       </c>
       <c r="E469" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>154</v>
       </c>
@@ -10313,10 +10310,10 @@
         <v>531</v>
       </c>
       <c r="E470" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>194</v>
       </c>
@@ -10330,10 +10327,10 @@
         <v>546</v>
       </c>
       <c r="E471" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>8</v>
       </c>
@@ -10347,10 +10344,10 @@
         <v>547</v>
       </c>
       <c r="E472" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>195</v>
       </c>
@@ -10364,10 +10361,10 @@
         <v>548</v>
       </c>
       <c r="E473" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>75</v>
       </c>
@@ -10381,10 +10378,10 @@
         <v>549</v>
       </c>
       <c r="E474" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>160</v>
       </c>
@@ -10398,10 +10395,10 @@
         <v>550</v>
       </c>
       <c r="E475" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>154</v>
       </c>
@@ -10415,10 +10412,10 @@
         <v>551</v>
       </c>
       <c r="E476" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>180</v>
       </c>
@@ -10432,10 +10429,10 @@
         <v>548</v>
       </c>
       <c r="E477" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>179</v>
       </c>
@@ -10449,10 +10446,10 @@
         <v>547</v>
       </c>
       <c r="E478" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>160</v>
       </c>
@@ -10466,10 +10463,10 @@
         <v>552</v>
       </c>
       <c r="E479" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>154</v>
       </c>
@@ -10483,10 +10480,10 @@
         <v>553</v>
       </c>
       <c r="E480" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>160</v>
       </c>
@@ -10500,10 +10497,10 @@
         <v>552</v>
       </c>
       <c r="E481" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>154</v>
       </c>
@@ -10517,7 +10514,7 @@
         <v>551</v>
       </c>
       <c r="E482" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
